--- a/Violations2023.xlsx
+++ b/Violations2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F68E9DC-F5BF-4897-B733-1BA1DB3C6A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77572CAB-4157-4F66-B609-0360B9865E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,11 +533,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,12 +897,12 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -911,7 +912,7 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -940,7 +941,7 @@
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>535</v>
       </c>
       <c r="C2">
@@ -969,7 +970,7 @@
       <c r="A3">
         <v>225</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>2258</v>
       </c>
       <c r="C3">
@@ -998,7 +999,7 @@
       <c r="A4">
         <v>218</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>6039</v>
       </c>
       <c r="C4">
@@ -1027,7 +1028,7 @@
       <c r="A5">
         <v>141</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>3066</v>
       </c>
       <c r="C5">
@@ -1056,7 +1057,7 @@
       <c r="A6">
         <v>1169</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>52680</v>
       </c>
       <c r="C6">
@@ -1085,7 +1086,7 @@
       <c r="A7">
         <v>214</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>5030</v>
       </c>
       <c r="C7">
@@ -1114,7 +1115,7 @@
       <c r="A8">
         <v>203</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>5724</v>
       </c>
       <c r="C8">
@@ -1143,7 +1144,7 @@
       <c r="A9">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>896</v>
       </c>
       <c r="C9">
@@ -1172,7 +1173,7 @@
       <c r="A10">
         <v>44</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>1628</v>
       </c>
       <c r="C10">
@@ -1201,7 +1202,7 @@
       <c r="A11">
         <v>698</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>12515</v>
       </c>
       <c r="C11">
@@ -1230,7 +1231,7 @@
       <c r="A12">
         <v>357</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>4594</v>
       </c>
       <c r="C12">
@@ -1259,7 +1260,7 @@
       <c r="A13">
         <v>42</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>1365</v>
       </c>
       <c r="C13">
@@ -1288,7 +1289,7 @@
       <c r="A14">
         <v>409</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>8519</v>
       </c>
       <c r="C14">
@@ -1317,7 +1318,7 @@
       <c r="A15">
         <v>81</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>2189</v>
       </c>
       <c r="C15">
@@ -1346,7 +1347,7 @@
       <c r="A16">
         <v>688</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>24341</v>
       </c>
       <c r="C16">
@@ -1375,7 +1376,7 @@
       <c r="A17">
         <v>518</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>14688</v>
       </c>
       <c r="C17">
@@ -1404,7 +1405,7 @@
       <c r="A18">
         <v>311</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>7024</v>
       </c>
       <c r="C18">
@@ -1433,7 +1434,7 @@
       <c r="A19">
         <v>275</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>3928</v>
       </c>
       <c r="C19">
@@ -1462,7 +1463,7 @@
       <c r="A20">
         <v>269</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <v>4575</v>
       </c>
       <c r="C20">
@@ -1491,7 +1492,7 @@
       <c r="A21">
         <v>348</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>11350</v>
       </c>
       <c r="C21">
@@ -1520,7 +1521,7 @@
       <c r="A22">
         <v>225</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>9461</v>
       </c>
       <c r="C22">
@@ -1549,7 +1550,7 @@
       <c r="A23">
         <v>85</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>1610</v>
       </c>
       <c r="C23">
@@ -1578,7 +1579,7 @@
       <c r="A24">
         <v>427</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>16644</v>
       </c>
       <c r="C24">
@@ -1607,7 +1608,7 @@
       <c r="A25">
         <v>349</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>8265</v>
       </c>
       <c r="C25">
@@ -1636,7 +1637,7 @@
       <c r="A26">
         <v>506</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>15833</v>
       </c>
       <c r="C26">
@@ -1665,7 +1666,7 @@
       <c r="A27">
         <v>202</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>2634</v>
       </c>
       <c r="C27">
@@ -1694,7 +1695,7 @@
       <c r="A28">
         <v>61</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="4">
         <v>1389</v>
       </c>
       <c r="C28">
@@ -1723,7 +1724,7 @@
       <c r="A29">
         <v>420</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>8349</v>
       </c>
       <c r="C29">
@@ -1752,7 +1753,7 @@
       <c r="A30">
         <v>76</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>1256</v>
       </c>
       <c r="C30">
@@ -1781,7 +1782,7 @@
       <c r="A31">
         <v>186</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>3744</v>
       </c>
       <c r="C31">
@@ -1810,7 +1811,7 @@
       <c r="A32">
         <v>74</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="4">
         <v>1002</v>
       </c>
       <c r="C32">
@@ -1839,7 +1840,7 @@
       <c r="A33">
         <v>348</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>5182</v>
       </c>
       <c r="C33">
@@ -1868,7 +1869,7 @@
       <c r="A34">
         <v>68</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="4">
         <v>2864</v>
       </c>
       <c r="C34">
@@ -1897,7 +1898,7 @@
       <c r="A35">
         <v>67</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="4">
         <v>2815</v>
       </c>
       <c r="C35">
@@ -1926,7 +1927,7 @@
       <c r="A36">
         <v>606</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="4">
         <v>9599</v>
       </c>
       <c r="C36">
@@ -1955,7 +1956,7 @@
       <c r="A37">
         <v>940</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="4">
         <v>27993</v>
       </c>
       <c r="C37">
@@ -1984,7 +1985,7 @@
       <c r="A38">
         <v>290</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="4">
         <v>7080</v>
       </c>
       <c r="C38">
@@ -2013,7 +2014,7 @@
       <c r="A39">
         <v>129</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="4">
         <v>4557</v>
       </c>
       <c r="C39">
@@ -2042,7 +2043,7 @@
       <c r="A40">
         <v>671</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>17419</v>
       </c>
       <c r="C40">
@@ -2071,7 +2072,7 @@
       <c r="A41">
         <v>74</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="4">
         <v>1866</v>
       </c>
       <c r="C41">
@@ -2100,7 +2101,7 @@
       <c r="A42">
         <v>189</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="4">
         <v>2850</v>
       </c>
       <c r="C42">
@@ -2129,7 +2130,7 @@
       <c r="A43">
         <v>98</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>1281</v>
       </c>
       <c r="C43">
@@ -2158,7 +2159,7 @@
       <c r="A44">
         <v>309</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="4">
         <v>4309</v>
       </c>
       <c r="C44">
@@ -2187,7 +2188,7 @@
       <c r="A45">
         <v>1190</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="4">
         <v>24058</v>
       </c>
       <c r="C45">
@@ -2216,7 +2217,7 @@
       <c r="A46">
         <v>98</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="4">
         <v>2646</v>
       </c>
       <c r="C46">
@@ -2245,7 +2246,7 @@
       <c r="A47">
         <v>289</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>10075</v>
       </c>
       <c r="C47">
@@ -2274,7 +2275,7 @@
       <c r="A48">
         <v>34</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="4">
         <v>680</v>
       </c>
       <c r="C48">
@@ -2303,7 +2304,7 @@
       <c r="A49">
         <v>195</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="4">
         <v>10457</v>
       </c>
       <c r="C49">
@@ -2332,7 +2333,7 @@
       <c r="A50">
         <v>327</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>7738</v>
       </c>
       <c r="C50">
@@ -2361,7 +2362,7 @@
       <c r="A51">
         <v>122</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>4327</v>
       </c>
       <c r="C51">
@@ -2390,7 +2391,7 @@
       <c r="A52">
         <v>35</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>693</v>
       </c>
       <c r="C52">

--- a/Violations2023.xlsx
+++ b/Violations2023.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD59243-0433-4C42-96FF-DAF9360A93A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF219692-2317-4690-B73F-64E1BC4EE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="9120" windowWidth="16410" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="State by State Violations2023_C" sheetId="1" r:id="rId1"/>
+    <sheet name="Violations_2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Violations2023.xlsx
+++ b/Violations2023.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF219692-2317-4690-B73F-64E1BC4EE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FBF623-2161-4815-A6CD-E383E9A727FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="9120" windowWidth="16410" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28590" yWindow="9120" windowWidth="16410" windowHeight="17115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Violations_2023" sheetId="1" r:id="rId1"/>
+    <sheet name="Violations2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
